--- a/data/processed/FPR vs TPR.xlsx
+++ b/data/processed/FPR vs TPR.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,7 +419,7 @@
         <v>0.003164556962025316</v>
       </c>
       <c r="C3">
-        <v>0.9999986446563984</v>
+        <v>0.9999995459485628</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.129746835443038</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="C4">
-        <v>0.999972160871287</v>
+        <v>0.9999837135908592</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.1930379746835443</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C5">
-        <v>0.9999716216898409</v>
+        <v>0.9999819518009659</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.2468354430379747</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C6">
-        <v>0.9999427683182505</v>
+        <v>0.9999758764822407</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,10 +460,10 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>0.3037974683544304</v>
+        <v>0.2626582278481013</v>
       </c>
       <c r="C7">
-        <v>0.9999422208745132</v>
+        <v>0.999973429149117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.3291139240506329</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="C8">
-        <v>0.999934789187697</v>
+        <v>0.9999574050658746</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0.3354430379746836</v>
+        <v>0.4715189873417722</v>
       </c>
       <c r="C9">
-        <v>0.9999332606051234</v>
+        <v>0.9999568472928365</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.3449367088607595</v>
+        <v>0.5348101265822784</v>
       </c>
       <c r="C10">
-        <v>0.999925581122329</v>
+        <v>0.9999329170756178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.4746835443037974</v>
+        <v>0.5411392405063291</v>
       </c>
       <c r="C11">
-        <v>0.9999246737302737</v>
+        <v>0.9999307273736462</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.6455696202531646</v>
+        <v>0.5981012658227848</v>
       </c>
       <c r="C12">
-        <v>0.9997854838280512</v>
+        <v>0.9999033681477413</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0.6518987341772152</v>
+        <v>0.6044303797468354</v>
       </c>
       <c r="C13">
-        <v>0.9997660391597888</v>
+        <v>0.999898361402715</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>0.680379746835443</v>
+        <v>0.819620253164557</v>
       </c>
       <c r="C14">
-        <v>0.999698799629465</v>
+        <v>0.9988632513207271</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0.6962025316455697</v>
+        <v>0.8259493670886076</v>
       </c>
       <c r="C15">
-        <v>0.9996756781159561</v>
+        <v>0.9988259859885452</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,98 +559,98 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.8227848101265823</v>
+        <v>0.9525316455696202</v>
       </c>
       <c r="C16">
-        <v>0.9983960363896327</v>
+        <v>0.92043335169492</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0</v>
+        <v>0.002590673575129534</v>
       </c>
       <c r="B17">
-        <v>0.8291139240506329</v>
+        <v>0.9525316455696202</v>
       </c>
       <c r="C17">
-        <v>0.9981343622993366</v>
+        <v>0.9155338700793891</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0</v>
+        <v>0.002590673575129534</v>
       </c>
       <c r="B18">
-        <v>0.9556962025316456</v>
+        <v>0.9715189873417721</v>
       </c>
       <c r="C18">
-        <v>0.8796324998929672</v>
+        <v>0.7970923412247629</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.002590673575129534</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="B19">
-        <v>0.9556962025316456</v>
+        <v>0.9715189873417721</v>
       </c>
       <c r="C19">
-        <v>0.8480150264354366</v>
+        <v>0.7572346215442045</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.002590673575129534</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="B20">
-        <v>0.9683544303797469</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="C20">
-        <v>0.8156791179858035</v>
+        <v>0.7333479396452087</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.005181347150259068</v>
+        <v>0.007772020725388601</v>
       </c>
       <c r="B21">
-        <v>0.9683544303797469</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="C21">
-        <v>0.7805972450725396</v>
+        <v>0.5643853474357633</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.005181347150259068</v>
+        <v>0.007772020725388601</v>
       </c>
       <c r="B22">
         <v>0.9778481012658228</v>
       </c>
       <c r="C22">
-        <v>0.5973078750463466</v>
+        <v>0.5615030152257449</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.01295336787564767</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="B23">
         <v>0.9778481012658228</v>
       </c>
       <c r="C23">
-        <v>0.5028724651750047</v>
+        <v>0.5358458416298769</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.01295336787564767</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="B24">
-        <v>0.9841772151898734</v>
+        <v>0.9810126582278481</v>
       </c>
       <c r="C24">
-        <v>0.4321885530390291</v>
+        <v>0.5016934764603386</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,10 +658,10 @@
         <v>0.0155440414507772</v>
       </c>
       <c r="B25">
-        <v>0.9841772151898734</v>
+        <v>0.9810126582278481</v>
       </c>
       <c r="C25">
-        <v>0.3972359449023976</v>
+        <v>0.4408519898001989</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,725 +669,648 @@
         <v>0.0155440414507772</v>
       </c>
       <c r="B26">
-        <v>0.9873417721518988</v>
+        <v>0.9841772151898734</v>
       </c>
       <c r="C26">
-        <v>0.3827118085109549</v>
+        <v>0.4257251893438878</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.03626943005181347</v>
+        <v>0.01813471502590673</v>
       </c>
       <c r="B27">
-        <v>0.9873417721518988</v>
+        <v>0.9841772151898734</v>
       </c>
       <c r="C27">
-        <v>0.2271073541074988</v>
+        <v>0.4247332665424868</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.03626943005181347</v>
+        <v>0.01813471502590673</v>
       </c>
       <c r="B28">
-        <v>0.9936708860759493</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="C28">
-        <v>0.1416038951200064</v>
+        <v>0.3993195514066594</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.05440414507772021</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="B29">
-        <v>0.9936708860759493</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="C29">
-        <v>0.08745008130077754</v>
+        <v>0.1809462156984304</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.05440414507772021</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="B30">
-        <v>0.9968354430379747</v>
+        <v>0.990506329113924</v>
       </c>
       <c r="C30">
-        <v>0.08726914964560664</v>
+        <v>0.1638741932635325</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.1036269430051813</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="B31">
-        <v>0.9968354430379747</v>
+        <v>0.990506329113924</v>
       </c>
       <c r="C31">
-        <v>0.01737145970135504</v>
+        <v>0.1505566303638075</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.1036269430051813</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.9936708860759493</v>
       </c>
       <c r="C32">
-        <v>0.01523774601874507</v>
+        <v>0.1311976253808664</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.2875647668393783</v>
+        <v>0.05440414507772021</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.9936708860759493</v>
       </c>
       <c r="C33">
-        <v>0.0006263501595236348</v>
+        <v>0.09605094088768698</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.2927461139896373</v>
+        <v>0.05440414507772021</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.9968354430379747</v>
       </c>
       <c r="C34">
-        <v>0.0005886313255448862</v>
+        <v>0.08879582777208314</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.3005181347150259</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9968354430379747</v>
       </c>
       <c r="C35">
-        <v>0.000557941999030944</v>
+        <v>0.005297595959677674</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.3056994818652849</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0.0005160142711465737</v>
+        <v>0.00499298470230999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.3134715025906736</v>
+        <v>0.2590673575129533</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0.0004868665365088991</v>
+        <v>0.0007587549035045091</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.3186528497409327</v>
+        <v>0.2642487046632124</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0.0004855978119053658</v>
+        <v>0.0007446243916517802</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3419689119170984</v>
+        <v>0.461139896373057</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0.0003131243381153831</v>
+        <v>0.0001193154005394725</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.3497409326424871</v>
+        <v>0.4663212435233161</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>0.000311197452671637</v>
+        <v>0.000118972224571397</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.3756476683937824</v>
+        <v>0.4740932642487047</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0.0002500715841825002</v>
+        <v>0.0001166810563556537</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.3860103626943005</v>
+        <v>0.4792746113989637</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0.0002405814042868799</v>
+        <v>0.0001165202059854132</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.4015544041450777</v>
+        <v>0.4870466321243523</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.0002023863450763976</v>
+        <v>0.0001157611042139578</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.4093264248704663</v>
+        <v>0.4948186528497409</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0.0002022606724154816</v>
+        <v>0.0001061165967368477</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.4274611398963731</v>
+        <v>0.5</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>0.0001855795179549884</v>
+        <v>0.0001037658387108537</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.4326424870466321</v>
+        <v>0.5854922279792746</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0.0001842139532418322</v>
+        <v>6.865013877328436E-05</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.4818652849740933</v>
+        <v>0.5906735751295337</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.0001508154934515977</v>
+        <v>6.741729851961142E-05</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.4870466321243523</v>
+        <v>0.655440414507772</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0.0001420325723137496</v>
+        <v>3.020863898602339E-05</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.5025906735751295</v>
+        <v>0.6632124352331606</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0.0001310927423695456</v>
+        <v>2.717523226163769E-05</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.5077720207253886</v>
+        <v>0.6683937823834197</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0.0001233862165227077</v>
+        <v>2.679913585586272E-05</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.5310880829015544</v>
+        <v>0.6761658031088082</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0.0001037487746686883</v>
+        <v>2.547910662230077E-05</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.5362694300518135</v>
+        <v>0.6839378238341969</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0.0001012058219501041</v>
+        <v>2.360123143643051E-05</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.5414507772020726</v>
+        <v>0.689119170984456</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>9.553386690132303E-05</v>
+        <v>2.233359883915264E-05</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.5466321243523317</v>
+        <v>0.7046632124352331</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>9.515064501009768E-05</v>
+        <v>2.064634759226348E-05</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.6062176165803109</v>
+        <v>0.7098445595854922</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>6.100845712036681E-05</v>
+        <v>2.022176663324144E-05</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.6217616580310881</v>
+        <v>0.7150259067357513</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>5.838973692198411E-05</v>
+        <v>1.958158128202159E-05</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.6243523316062176</v>
+        <v>0.7383419689119171</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>5.798722212700904E-05</v>
+        <v>1.942990376491338E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.6295336787564767</v>
+        <v>0.7435233160621761</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>5.606642851516775E-05</v>
+        <v>1.938676330173595E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.6502590673575129</v>
+        <v>0.7538860103626943</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>4.876304475030196E-05</v>
+        <v>1.904161405902729E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.655440414507772</v>
+        <v>0.7564766839378239</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>4.819229598902381E-05</v>
+        <v>1.852984187485917E-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.6787564766839378</v>
+        <v>0.7616580310880829</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>4.016177285640878E-05</v>
+        <v>1.850323660706329E-05</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.7124352331606217</v>
+        <v>0.8160621761658031</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>3.946380473412734E-05</v>
+        <v>1.838631090559549E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.7227979274611399</v>
+        <v>0.8264248704663213</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>3.909331333270246E-05</v>
+        <v>1.834548750244648E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.7253886010362695</v>
+        <v>0.8316062176165803</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>3.798234486346059E-05</v>
+        <v>1.800052091589528E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.7538860103626943</v>
+        <v>0.8367875647668394</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>3.789352439990894E-05</v>
+        <v>1.798980141497424E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.7616580310880829</v>
+        <v>0.8393782383419689</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>3.788023503470925E-05</v>
+        <v>1.796397152686283E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.7746113989637305</v>
+        <v>0.8497409326424871</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>3.757893394348076E-05</v>
+        <v>1.7866460986933E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.7823834196891192</v>
+        <v>0.8523316062176166</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>3.753777444387079E-05</v>
+        <v>1.78267917938149E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.7849740932642487</v>
+        <v>0.8601036269430051</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>3.704672372998902E-05</v>
+        <v>1.759263585719613E-05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.7927461139896373</v>
+        <v>0.8626943005181347</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>3.653077201873535E-05</v>
+        <v>1.743065504805421E-05</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.7953367875647669</v>
+        <v>0.8782383419689119</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>3.511565572956446E-05</v>
+        <v>1.69768737826589E-05</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.8031088082901554</v>
+        <v>0.883419689119171</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>3.507719411761468E-05</v>
+        <v>1.664772221791218E-05</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.8056994818652849</v>
+        <v>0.8937823834196891</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>3.458305177164487E-05</v>
+        <v>1.649444137575953E-05</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.8316062176165803</v>
+        <v>0.9067357512953368</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>3.425013994064999E-05</v>
+        <v>1.482443977866163E-05</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.8393782383419689</v>
+        <v>0.9222797927461139</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>3.423812827684117E-05</v>
+        <v>1.446977253421284E-05</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.844559585492228</v>
+        <v>0.9300518134715026</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>3.392859345087873E-05</v>
+        <v>1.440529585541281E-05</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.8497409326424871</v>
+        <v>0.9326424870466321</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>3.273365356728863E-05</v>
+        <v>1.38887389686793E-05</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.8652849740932642</v>
+        <v>0.9378238341968912</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>3.263803023857216E-05</v>
+        <v>1.352421696406817E-05</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.8808290155440415</v>
+        <v>0.9455958549222798</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>3.072816896553661E-05</v>
+        <v>1.337292879253144E-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.883419689119171</v>
+        <v>0.9507772020725389</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>3.070406866329057E-05</v>
+        <v>1.310152241684699E-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.8911917098445595</v>
+        <v>0.9585492227979274</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>3.038716572507098E-05</v>
+        <v>1.257812753688347E-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.8937823834196891</v>
+        <v>0.9689119170984456</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>2.974652552603873E-05</v>
+        <v>1.239076024698817E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.9067357512953368</v>
+        <v>0.9818652849740933</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>2.954818796609958E-05</v>
+        <v>1.237930150123696E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.9119170984455959</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>2.953782524732156E-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>0.9196891191709845</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>2.882195182522188E-05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>0.9248704663212435</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>2.832611053343239E-05</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>0.927461139896373</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>2.817264536909099E-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>0.9326424870466321</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>2.735208452203535E-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>0.9352331606217616</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>2.7218400542194E-05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>0.9404145077720207</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>2.718655511288563E-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1.578547242614715E-07</v>
+        <v>1.620559177063308E-06</v>
       </c>
     </row>
   </sheetData>
